--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3257047.420315385</v>
+        <v>3363121.018468229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283171</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8058939.552924411</v>
+        <v>8074091.468052142</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>297.7940859372896</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>59.94668330577041</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>123.0472710153557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.55596175061132</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>143.4310567476151</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>223.6111296671748</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>97.68144828304881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>76.04912520459803</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>50.10896315666692</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>6.632494016571904</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>31.52072535629962</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>98.11258468995959</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176103</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>220.2028736325136</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>186.9694647881491</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>124.6209519256076</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>108.3106907504114</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2132,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.45282559760403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>101.9154861872836</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>42.20606459030861</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>261.9345988277395</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2843,13 +2845,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>113.7076464771419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238277</v>
+        <v>249.6039530262992</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695504</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465689</v>
+        <v>145.7379152067529</v>
       </c>
       <c r="F34" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>63.84155641259716</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890369</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>116.9020714724198</v>
       </c>
       <c r="E37" t="n">
-        <v>83.06560892428624</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695504</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986276</v>
+        <v>55.83068150864332</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>220.634610295318</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,16 +3799,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.17550840396687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>119.8099036979371</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>81.54417886827382</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.120246683345</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.157729742933</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723278</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2766.859418723278</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>2376.720086747467</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>430.1310041178871</v>
       </c>
       <c r="E4" t="n">
-        <v>214.9044216447586</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>214.9044216447586</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>214.9044216447586</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>580.2476435302228</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1571.558046306621</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>2292.760265626004</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2292.760265626004</v>
       </c>
       <c r="V5" t="n">
-        <v>3099.73599366253</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1571.558046306621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431.4421061205821</v>
+        <v>572.983765247105</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5059231926753</v>
+        <v>572.983765247105</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5059231926753</v>
+        <v>422.8671258347692</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5059231926753</v>
+        <v>274.9540322523761</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>128.0640847544658</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>128.0640847544658</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>793.7763443906351</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4421061205821</v>
+        <v>572.983765247105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>581.1420803965852</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3318.906332703543</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3065.37585597738</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>879.9099329995254</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>710.9737500716185</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>560.8571106592827</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>412.9440170768896</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>266.0540695789792</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>98.3512329536982</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>98.3512329536982</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>491.70344522622</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9099329995254</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5063,25 +5065,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9229991561138</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>443.4949469776659</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>443.4949469776659</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>3822.85118454131</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>3822.85118454131</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192596</v>
@@ -6230,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6248,7 +6250,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>136.4490515230311</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>136.4490515230311</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6491,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135284</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856217</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D31" t="n">
-        <v>550.6376870732862</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908933</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908933</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057735</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2332.106875017493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.505410040434</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1823.430183384632</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1568.745695178745</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W31" t="n">
-        <v>1279.328525141785</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X31" t="n">
-        <v>1051.338974243768</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243768</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327681</v>
+        <v>3341.834150859822</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048615</v>
+        <v>3172.897967931915</v>
       </c>
       <c r="D34" t="n">
-        <v>594.8179559048615</v>
+        <v>3022.781328519579</v>
       </c>
       <c r="E34" t="n">
-        <v>446.9048623224686</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>300.0149148245585</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057735</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038348</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797751</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580262</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603204</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947402</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741515</v>
+        <v>4033.692364870552</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704554</v>
+        <v>3744.275194833592</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806537</v>
+        <v>3744.275194833592</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630075</v>
+        <v>3523.482615690062</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400753</v>
+        <v>3228.416786794628</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121687</v>
+        <v>3059.480603866722</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121687</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330916</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330916</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038348</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797751</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853363</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832665</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510511</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854709</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648822</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611862</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138445</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703147</v>
+        <v>3410.065251624868</v>
       </c>
     </row>
     <row r="38">
@@ -7163,49 +7165,49 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
@@ -7217,7 +7219,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733338</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454271</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330916</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330916</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330916</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510511</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787967</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582081</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.49617954512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471031</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035733</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.754326485622</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>700.754326485622</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D43" t="n">
-        <v>550.6376870732864</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908935</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057736</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179117</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558404</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C46" t="n">
-        <v>2757.723669558404</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D46" t="n">
-        <v>2757.723669558404</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>2651.772778649334</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>2504.882831151423</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866303</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866303</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
         <v>4690.833152398593</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.33114932884</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673038</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467151</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430191</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532174</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388644</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>294.834493518473</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>5.506781756523537</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>65.16817853567886</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>40.9031863666612</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>143.8269525734166</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>39.05977172825693</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>24.58839950885152</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856528</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>67.31863952450249</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2.533690297528779</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.696047439816283</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>101.6825818796714</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856528</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182121</v>
+        <v>31.71340154579254</v>
       </c>
       <c r="E37" t="n">
-        <v>63.36835372228268</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856528</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856528</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>65.54986409392595</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.6564717779703</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064658984</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>144.1654765207633</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>705814.7759298012</v>
+        <v>713539.2816811933</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>705814.7759298012</v>
+        <v>713539.2816811933</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>694003.8812816656</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>694003.8812816656</v>
+        <v>694003.8812816655</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210048</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309556</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744371</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.2563917443</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744309</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744362</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744397</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744464</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744428</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.25639174452</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.25639174438</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785655.3845742261</v>
+        <v>-604274.1001148926</v>
       </c>
       <c r="C6" t="n">
-        <v>543089.3611533665</v>
+        <v>510477.6834610264</v>
       </c>
       <c r="D6" t="n">
-        <v>543089.3611533663</v>
+        <v>350462.2207130283</v>
       </c>
       <c r="E6" t="n">
-        <v>291169.6916979988</v>
+        <v>291169.6916979987</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053537</v>
+        <v>616582.1535053541</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.1535053538</v>
+        <v>616582.1535053542</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.153505354</v>
+        <v>616582.1535053542</v>
       </c>
       <c r="I6" t="n">
         <v>616582.1535053541</v>
       </c>
       <c r="J6" t="n">
-        <v>399050.9511080767</v>
+        <v>448976.9756953713</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.1535053535</v>
+        <v>616582.1535053543</v>
       </c>
       <c r="L6" t="n">
-        <v>616582.1535053533</v>
+        <v>568288.1834971635</v>
       </c>
       <c r="M6" t="n">
-        <v>531527.1255698416</v>
+        <v>531527.1255698421</v>
       </c>
       <c r="N6" t="n">
         <v>616582.1535053541</v>
       </c>
       <c r="O6" t="n">
+        <v>616582.1535053541</v>
+      </c>
+      <c r="P6" t="n">
         <v>616582.1535053538</v>
-      </c>
-      <c r="P6" t="n">
-        <v>616582.1535053542</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>56.88895568339336</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.38669163121351</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>94.19905316370946</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>63.22712823261864</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>104.1411288029601</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.73959973988244</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>71.20238395053084</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>331.8214069155949</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>197.2854761230482</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>64.83169505353847</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>127.5970706990776</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>260.1710714068256</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,22 +32320,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32722,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>502.5232631188761</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>579.5299594447137</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>432.1946015714839</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>592.5148541563232</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>122.3296324324666</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35899,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>368.5488557045459</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>290.0605676494656</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629536</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3363121.018468229</v>
+        <v>3359025.376963462</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>214.3411264127414</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>59.94668330577041</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>123.0472710153557</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>98.89148327532443</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>143.4310567476151</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>20.54039702942476</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>76.04912520459803</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>191.3567757187678</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.10896315666692</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>189.2395865667816</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>98.11258468995959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>189.642334583715</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>220.2028736325136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>186.9694647881491</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>108.3106907504114</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>22.04658882052573</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.9154861872836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2614,13 +2614,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>42.20606459030861</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>249.6039530262992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.7379152067529</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>116.9020714724198</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>55.83068150864332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>119.8099036979371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>81.54417886827382</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>279.4173210990086</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>267.7529748637015</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1230.929670823581</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.929670823581</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.2476435302228</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>580.2476435302228</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>430.1310041178871</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1536.555732927705</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>1536.555732927705</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302228</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.2476435302228</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.558046306621</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2292.760265626004</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2292.760265626004</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1961.697378282433</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.697378282433</v>
+        <v>2416.892245139327</v>
       </c>
       <c r="X5" t="n">
-        <v>1961.697378282433</v>
+        <v>2043.426486878247</v>
       </c>
       <c r="Y5" t="n">
-        <v>1571.558046306621</v>
+        <v>1653.287154902436</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.983765247105</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>572.983765247105</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>422.8671258347692</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>274.9540322523761</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>128.0640847544658</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>128.0640847544658</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288652</v>
+        <v>1154.038110135135</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.765895288652</v>
+        <v>864.6209400981746</v>
       </c>
       <c r="X7" t="n">
-        <v>793.7763443906351</v>
+        <v>864.6209400981746</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.983765247105</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033357</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1420803965852</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>491.70344522622</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>491.70344522622</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5229,22 +5229,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.240688199802</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.823518162841</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3822.85118454131</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3822.85118454131</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3594.861633643293</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,19 +6253,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>917.5010142286973</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>748.5648313007904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>598.4481918884546</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>450.5350983060615</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>303.6451508081511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>136.4490515230311</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>136.4490515230311</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1099.149479058937</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.115483122732</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1329.698313085771</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1101.708762187754</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.9161830442239</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3341.834150859822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3172.897967931915</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>3022.781328519579</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4288.376853076439</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4033.692364870552</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.275194833592</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.275194833592</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3523.482615690062</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2567.280686761779</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3228.416786794628</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3059.480603866722</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3410.065251624868</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>741.8431516380886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>591.7265122257528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>443.8134186433597</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>296.9234711454493</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,19 +7733,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3594.861633643293</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
-        <v>294.834493518473</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.76311574357325</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>5.506781756523537</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>65.16817853567886</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>143.8269525734166</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.5688841976866</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.05977172825693</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.533690297528779</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.696047439816283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31.71340154579254</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.71423459433174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>144.1654765207633</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778542</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
@@ -26340,22 +26340,22 @@
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744217</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
@@ -26441,7 +26441,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744284</v>
@@ -26450,10 +26450,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604274.1001148926</v>
+        <v>-604274.1001148932</v>
       </c>
       <c r="C6" t="n">
-        <v>510477.6834610264</v>
+        <v>510477.6834610268</v>
       </c>
       <c r="D6" t="n">
-        <v>350462.2207130283</v>
+        <v>350462.2207130286</v>
       </c>
       <c r="E6" t="n">
-        <v>291169.6916979987</v>
+        <v>290822.3124436414</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509972</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.1535053542</v>
+        <v>616234.7742509969</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.1535053542</v>
+        <v>616234.7742509971</v>
       </c>
       <c r="I6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509971</v>
       </c>
       <c r="J6" t="n">
-        <v>448976.9756953713</v>
+        <v>448629.5964410143</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.1535053543</v>
+        <v>616234.774250997</v>
       </c>
       <c r="L6" t="n">
-        <v>568288.1834971635</v>
+        <v>567940.804242806</v>
       </c>
       <c r="M6" t="n">
-        <v>531527.1255698421</v>
+        <v>531179.746315485</v>
       </c>
       <c r="N6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509972</v>
       </c>
       <c r="O6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509969</v>
       </c>
       <c r="P6" t="n">
-        <v>616582.1535053538</v>
+        <v>616234.774250997</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,10 +26795,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86.67742614966394</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>309.7844173726986</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.38669163121351</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>121.8572127218875</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>63.22712823261864</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>328.7005716879883</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>71.20238395053084</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>60.78086760506017</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>331.8214069155949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>217.6364591749299</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>127.5970706990776</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,10 +32469,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.960367665998</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33262,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>432.1946015714839</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1014732918236</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>592.5148541563232</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>290.0605676494656</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1270658774933</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3359025.376963462</v>
+        <v>3360785.907266248</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>214.3411264127414</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.59167687193135</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>98.89148327532443</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.50612826256169</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.885386726195</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>20.54039702942476</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>98.13642944995985</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>191.3567757187678</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.1157992952052</v>
       </c>
       <c r="F8" t="n">
-        <v>189.2395865667816</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>189.642334583715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>206.690869499235</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>85.08368458989469</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.38324202937362</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829028</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C2" t="n">
-        <v>690.4032258886161</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D2" t="n">
-        <v>690.4032258886161</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E2" t="n">
-        <v>690.4032258886161</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F2" t="n">
-        <v>279.4173210990086</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G2" t="n">
-        <v>267.7529748637015</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2511.236624489115</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.655563753294</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1926.592676409723</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.96558289315</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4479,25 +4479,25 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,22 +4509,22 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1536.555732927705</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1536.555732927705</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1281.871244721818</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
         <v>1281.871244721818</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>1321.266375419621</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>952.3038584792089</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>594.0381598724584</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>208.2499072742142</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2416.892245139327</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>2043.426486878247</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1653.287154902436</v>
+        <v>1321.266375419621</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744468</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1537.318413559387</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1314.339932754122</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1025.22159525796</v>
       </c>
       <c r="V7" t="n">
-        <v>1154.038110135135</v>
+        <v>770.537107052073</v>
       </c>
       <c r="W7" t="n">
-        <v>864.6209400981746</v>
+        <v>770.537107052073</v>
       </c>
       <c r="X7" t="n">
-        <v>864.6209400981746</v>
+        <v>770.537107052073</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.6209400981746</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221566</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281155</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.316163281155</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064544</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6600,52 +6600,52 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,34 +6858,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273905</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7797,10 +7797,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>27.76311574357325</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>55.21102825632917</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>100.1408962628952</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210052</v>
@@ -26334,28 +26334,28 @@
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26371,31 +26371,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403375</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819057</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551196</v>
@@ -26420,19 +26420,19 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744217</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,19 +26441,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744235</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604274.1001148932</v>
+        <v>-604274.1001148931</v>
       </c>
       <c r="C6" t="n">
-        <v>510477.6834610268</v>
+        <v>510477.6834610267</v>
       </c>
       <c r="D6" t="n">
-        <v>350462.2207130286</v>
+        <v>350462.2207130288</v>
       </c>
       <c r="E6" t="n">
-        <v>290822.3124436414</v>
+        <v>291134.9537725632</v>
       </c>
       <c r="F6" t="n">
-        <v>616234.7742509972</v>
+        <v>616547.4155799184</v>
       </c>
       <c r="G6" t="n">
-        <v>616234.7742509969</v>
+        <v>616547.415579918</v>
       </c>
       <c r="H6" t="n">
-        <v>616234.7742509971</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="I6" t="n">
-        <v>616234.7742509971</v>
+        <v>616547.415579918</v>
       </c>
       <c r="J6" t="n">
-        <v>448629.5964410143</v>
+        <v>448942.2377699356</v>
       </c>
       <c r="K6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="L6" t="n">
-        <v>567940.804242806</v>
+        <v>568253.4455717278</v>
       </c>
       <c r="M6" t="n">
-        <v>531179.746315485</v>
+        <v>531492.3876444062</v>
       </c>
       <c r="N6" t="n">
-        <v>616234.7742509972</v>
+        <v>616547.4155799184</v>
       </c>
       <c r="O6" t="n">
-        <v>616234.7742509969</v>
+        <v>616547.4155799184</v>
       </c>
       <c r="P6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799185</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973562</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>86.67742614966394</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>156.0665081083024</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>121.8572127218875</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.6315150612663</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>262.9906590155165</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>328.7005716879883</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>96.52603091177761</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>60.78086760506017</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.8145707770566</v>
       </c>
       <c r="F8" t="n">
-        <v>217.6364591749299</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620054</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
